--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_3809.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_3809.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3809</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Andrew Balbirnie</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3143</t>
+          <t>3143</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3145</t>
+          <t>3145</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3151</t>
+          <t>3151</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3154</t>
+          <t>3154</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3674</t>
+          <t>3674</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3675</t>
+          <t>3675</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -816,7 +881,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3676</t>
+          <t>3676</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -868,7 +933,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3722</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -920,7 +985,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3724</t>
+          <t>3724</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -972,7 +1037,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3730</t>
+          <t>3730</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1012,7 +1077,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>19/01/2015</t>
@@ -1020,7 +1084,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3733</t>
+          <t>3733</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1072,7 +1136,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3752</t>
+          <t>3752</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1124,7 +1188,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3763</t>
+          <t>3763</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1176,7 +1240,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3771</t>
+          <t>3771</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1228,7 +1292,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3777</t>
+          <t>3777</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1280,7 +1344,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3781</t>
+          <t>3781</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1332,7 +1396,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3789</t>
+          <t>3789</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1384,7 +1448,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3800</t>
+          <t>3800</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1436,7 +1500,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3829</t>
+          <t>3829</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1488,7 +1552,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3839</t>
+          <t>3839</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1540,7 +1604,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3840</t>
+          <t>3840</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1592,7 +1656,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3842</t>
+          <t>3842</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1644,7 +1708,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4000</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1696,7 +1760,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4003</t>
+          <t>4003</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1748,7 +1812,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4007</t>
+          <t>4007</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1800,7 +1864,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4008</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1852,7 +1916,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4009</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1904,7 +1968,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4010</t>
+          <t>4010</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1956,7 +2020,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4020</t>
+          <t>4020</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2008,7 +2072,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4021</t>
+          <t>4021</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2048,7 +2112,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>12/05/2017</t>
@@ -2056,7 +2119,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4022</t>
+          <t>4022</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2108,7 +2171,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4023</t>
+          <t>4023</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2160,7 +2223,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4025</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2212,7 +2275,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4026</t>
+          <t>4026</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2264,7 +2327,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4092</t>
+          <t>4092</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2316,7 +2379,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4093</t>
+          <t>4093</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2368,7 +2431,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4097</t>
+          <t>4097</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2420,7 +2483,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4106</t>
+          <t>4106</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2472,7 +2535,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4107</t>
+          <t>4107</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2524,7 +2587,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4111</t>
+          <t>4111</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2576,7 +2639,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4113</t>
+          <t>4113</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2628,7 +2691,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4143</t>
+          <t>4143</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2680,7 +2743,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4150</t>
+          <t>4150</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2732,7 +2795,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4152</t>
+          <t>4152</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2784,7 +2847,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4156</t>
+          <t>4156</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2836,7 +2899,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4158</t>
+          <t>4158</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2888,7 +2951,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4163</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2940,7 +3003,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4189</t>
+          <t>4189</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2992,7 +3055,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4190</t>
+          <t>4190</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3044,7 +3107,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4192</t>
+          <t>4192</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3096,7 +3159,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4257</t>
+          <t>4257</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3136,7 +3199,6 @@
           <t>52</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>02/03/2019</t>
@@ -3144,7 +3206,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4259</t>
+          <t>4259</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3196,7 +3258,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4262</t>
+          <t>4262</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3248,7 +3310,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4265</t>
+          <t>4265</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3300,7 +3362,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4267</t>
+          <t>4267</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3352,7 +3414,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4284</t>
+          <t>4284</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3404,7 +3466,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4285</t>
+          <t>4285</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3456,7 +3518,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4291</t>
+          <t>4291</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3508,7 +3570,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4295</t>
+          <t>4295</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3560,7 +3622,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4299</t>
+          <t>4299</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3612,7 +3674,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4301</t>
+          <t>4301</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3664,7 +3726,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4343</t>
+          <t>4343</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3716,7 +3778,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4347</t>
+          <t>4347</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3768,7 +3830,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4352</t>
+          <t>4352</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3820,7 +3882,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4391</t>
+          <t>4391</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3872,7 +3934,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4394</t>
+          <t>4394</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3924,7 +3986,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4397</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3976,7 +4038,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4426</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4028,7 +4090,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4427</t>
+          <t>4427</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4080,7 +4142,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4428</t>
+          <t>4428</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4132,7 +4194,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4439</t>
+          <t>4439</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4184,7 +4246,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4442</t>
+          <t>4442</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4236,7 +4298,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4444</t>
+          <t>4444</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4288,7 +4350,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4446</t>
+          <t>4446</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4340,7 +4402,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4448</t>
+          <t>4448</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4392,7 +4454,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4466</t>
+          <t>4466</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4444,7 +4506,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4467</t>
+          <t>4467</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4496,7 +4558,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4468</t>
+          <t>4468</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4548,7 +4610,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4474</t>
+          <t>4474</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4600,7 +4662,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4475</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4652,7 +4714,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4478</t>
+          <t>4478</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4704,7 +4766,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4492</t>
+          <t>4492</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4756,7 +4818,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4494</t>
+          <t>4494</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4808,7 +4870,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4496</t>
+          <t>4496</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4860,7 +4922,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4519</t>
+          <t>4519</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4912,7 +4974,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4605</t>
+          <t>4605</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4964,7 +5026,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4608</t>
+          <t>4608</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5016,7 +5078,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4614</t>
+          <t>4614</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5068,7 +5130,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4693</t>
+          <t>4693</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5120,7 +5182,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4726</t>
+          <t>4726</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5160,7 +5222,6 @@
           <t>91</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
           <t>20/03/2023</t>
@@ -5168,7 +5229,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4729</t>
+          <t>4729</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5220,7 +5281,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4734</t>
+          <t>4734</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5259,7 +5320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5281,7 +5342,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -5318,7 +5379,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3676</t>
+          <t>3676</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -5355,7 +5416,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3722</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -5392,7 +5453,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3730</t>
+          <t>3730</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -5429,7 +5490,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4693</t>
+          <t>4693</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -5455,6 +5516,555 @@
       <c r="G5" t="inlineStr">
         <is>
           <t>0/38</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5.54%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.93%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2.17%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4466</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2.06%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4467</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>39.87%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4468</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7.98%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4474</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4475</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>35.17%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4478</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4492</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5.26%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4494</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4496</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.81%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4519</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3.00%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4608</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.93%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4693</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4726</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4729</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4734</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>5.94%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_3809.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_3809.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1077,6 +1076,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>19/01/2015</t>
@@ -2112,6 +2112,7 @@
           <t>31</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>12/05/2017</t>
@@ -2124,7 +2125,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3199,6 +3200,7 @@
           <t>52</t>
         </is>
       </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>02/03/2019</t>
@@ -3211,7 +3213,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -5222,6 +5224,7 @@
           <t>91</t>
         </is>
       </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
           <t>20/03/2023</t>
@@ -5234,7 +5237,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5522,553 +5525,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>5.54%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4446</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1.93%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4448</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.17%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4466</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.06%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4467</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>39.87%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4468</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>7.98%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4474</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4475</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>35.17%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4478</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4492</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5.26%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4494</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4496</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>28.81%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4519</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4605</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.00%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4608</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.93%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4614</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4693</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4726</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4729</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4734</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>5.94%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>